--- a/BNK费用查询模板(请勿修改文件名和表头).xlsx
+++ b/BNK费用查询模板(请勿修改文件名和表头).xlsx
@@ -11,7 +11,7 @@
     <sheet name="SUPPLIER_ID" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$316</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="320">
   <si>
     <t>零件号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,64 +51,943 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2GG845011</t>
-  </si>
-  <si>
-    <t>2GG845011C</t>
-  </si>
-  <si>
-    <t>2GG845051E</t>
-  </si>
-  <si>
-    <t>2GG845051F</t>
-  </si>
-  <si>
-    <t>57D845021</t>
-  </si>
-  <si>
-    <t>57D845022</t>
-  </si>
-  <si>
-    <t>57D845025</t>
-  </si>
-  <si>
-    <t>57D845026</t>
-  </si>
-  <si>
-    <t>2GG810971</t>
-  </si>
-  <si>
-    <t>2GG810972</t>
-  </si>
-  <si>
-    <t>2GG863367  07N</t>
-  </si>
-  <si>
-    <t>2GG867769  7T8</t>
-  </si>
-  <si>
-    <t>575863462  CA9</t>
-  </si>
-  <si>
-    <t>19D959855  WHS</t>
-  </si>
-  <si>
-    <t>19D959857  WHS</t>
-  </si>
-  <si>
-    <t>57D837461</t>
-  </si>
-  <si>
-    <t>57D837462</t>
-  </si>
-  <si>
-    <t>57D839461</t>
-  </si>
-  <si>
-    <t>57D839462</t>
-  </si>
-  <si>
-    <t>57D951206B</t>
+    <t>11A813393</t>
+  </si>
+  <si>
+    <t>11A813394</t>
+  </si>
+  <si>
+    <t>11A804749</t>
+  </si>
+  <si>
+    <t>11A804750</t>
+  </si>
+  <si>
+    <t>11A809677</t>
+  </si>
+  <si>
+    <t>11A809678</t>
+  </si>
+  <si>
+    <t>11A833457</t>
+  </si>
+  <si>
+    <t>11A833458</t>
+  </si>
+  <si>
+    <t>3CG827299</t>
+  </si>
+  <si>
+    <t>11D831507</t>
+  </si>
+  <si>
+    <t>11D831508</t>
+  </si>
+  <si>
+    <t>11D833507</t>
+  </si>
+  <si>
+    <t>11D833508</t>
+  </si>
+  <si>
+    <t>11A864637</t>
+  </si>
+  <si>
+    <t>11A864638</t>
+  </si>
+  <si>
+    <t>11A864565</t>
+  </si>
+  <si>
+    <t>11A864003</t>
+  </si>
+  <si>
+    <t>11A864015</t>
+  </si>
+  <si>
+    <t>11D864621</t>
+  </si>
+  <si>
+    <t>11A864633</t>
+  </si>
+  <si>
+    <t>11A864663</t>
+  </si>
+  <si>
+    <t>11A864627A</t>
+  </si>
+  <si>
+    <t>11A864566</t>
+  </si>
+  <si>
+    <t>11A864016</t>
+  </si>
+  <si>
+    <t>11D864622</t>
+  </si>
+  <si>
+    <t>11A864634</t>
+  </si>
+  <si>
+    <t>11A864664</t>
+  </si>
+  <si>
+    <t>11A864628A</t>
+  </si>
+  <si>
+    <t>11D817123</t>
+  </si>
+  <si>
+    <t>11D817123A</t>
+  </si>
+  <si>
+    <t>1EA803884E</t>
+  </si>
+  <si>
+    <t>11D810421</t>
+  </si>
+  <si>
+    <t>11D810422</t>
+  </si>
+  <si>
+    <t>1EA810425A</t>
+  </si>
+  <si>
+    <t>1EA810426A</t>
+  </si>
+  <si>
+    <t>11D827741</t>
+  </si>
+  <si>
+    <t>11D827742</t>
+  </si>
+  <si>
+    <t>1EA802311</t>
+  </si>
+  <si>
+    <t>1EA813541</t>
+  </si>
+  <si>
+    <t>1EA813695</t>
+  </si>
+  <si>
+    <t>1EA868741</t>
+  </si>
+  <si>
+    <t>1EA813696</t>
+  </si>
+  <si>
+    <t>1EA813542</t>
+  </si>
+  <si>
+    <t>1EA868742B</t>
+  </si>
+  <si>
+    <t>11A817421</t>
+  </si>
+  <si>
+    <t>11A817369</t>
+  </si>
+  <si>
+    <t>11A817771</t>
+  </si>
+  <si>
+    <t>11A817905</t>
+  </si>
+  <si>
+    <t>11A817422</t>
+  </si>
+  <si>
+    <t>11A817370</t>
+  </si>
+  <si>
+    <t>11A817772</t>
+  </si>
+  <si>
+    <t>11A817906</t>
+  </si>
+  <si>
+    <t>11A833123</t>
+  </si>
+  <si>
+    <t>11A833124</t>
+  </si>
+  <si>
+    <t>11D853688B 2ZZ</t>
+  </si>
+  <si>
+    <t>11D853689B 2ZZ</t>
+  </si>
+  <si>
+    <t>11D853688A 2ZZ</t>
+  </si>
+  <si>
+    <t>11D853689A 2ZZ</t>
+  </si>
+  <si>
+    <t>11D839478  5AP</t>
+  </si>
+  <si>
+    <t>11D839477  5AP</t>
+  </si>
+  <si>
+    <t>11A837477  5AP</t>
+  </si>
+  <si>
+    <t>11A837478  5AP</t>
+  </si>
+  <si>
+    <t>11A839477  5AP</t>
+  </si>
+  <si>
+    <t>11A839478  5AP</t>
+  </si>
+  <si>
+    <t>11D854327  5AP</t>
+  </si>
+  <si>
+    <t>11D854328  5AP</t>
+  </si>
+  <si>
+    <t>1ED959651</t>
+  </si>
+  <si>
+    <t>1ED959655H</t>
+  </si>
+  <si>
+    <t>1ED959354</t>
+  </si>
+  <si>
+    <t>1EA611794A</t>
+  </si>
+  <si>
+    <t>1EA611841C</t>
+  </si>
+  <si>
+    <t>1EA611842C</t>
+  </si>
+  <si>
+    <t>11A827427A</t>
+  </si>
+  <si>
+    <t>11A827428A</t>
+  </si>
+  <si>
+    <t>1ED816111</t>
+  </si>
+  <si>
+    <t>1ED122101B</t>
+  </si>
+  <si>
+    <t>1ED122109</t>
+  </si>
+  <si>
+    <t>1ED122109A</t>
+  </si>
+  <si>
+    <t>1ED121449</t>
+  </si>
+  <si>
+    <t>1ED121036</t>
+  </si>
+  <si>
+    <t>1ED121054A</t>
+  </si>
+  <si>
+    <t>1ED121621</t>
+  </si>
+  <si>
+    <t>1ED121157</t>
+  </si>
+  <si>
+    <t>1ED121052</t>
+  </si>
+  <si>
+    <t>11D827939  041</t>
+  </si>
+  <si>
+    <t>11D827940  041</t>
+  </si>
+  <si>
+    <t>11D601171</t>
+  </si>
+  <si>
+    <t>5QD906457</t>
+  </si>
+  <si>
+    <t>1EA980556B</t>
+  </si>
+  <si>
+    <t>5WA035507A 041</t>
+  </si>
+  <si>
+    <t>1ED901131C</t>
+  </si>
+  <si>
+    <t>1ED965567B</t>
+  </si>
+  <si>
+    <t>1ED965567C</t>
+  </si>
+  <si>
+    <t>N  90737107</t>
+  </si>
+  <si>
+    <t>1EA971393A</t>
+  </si>
+  <si>
+    <t>3GD827887B</t>
+  </si>
+  <si>
+    <t>11D827506</t>
+  </si>
+  <si>
+    <t>11D837249</t>
+  </si>
+  <si>
+    <t>11D839249</t>
+  </si>
+  <si>
+    <t>11D860033</t>
+  </si>
+  <si>
+    <t>11D860034</t>
+  </si>
+  <si>
+    <t>11D853537</t>
+  </si>
+  <si>
+    <t>11D853538</t>
+  </si>
+  <si>
+    <t>11D853539</t>
+  </si>
+  <si>
+    <t>11D853540</t>
+  </si>
+  <si>
+    <t>1ED611701A</t>
+  </si>
+  <si>
+    <t>1ED122050</t>
+  </si>
+  <si>
+    <t>5H0887233C 4PK</t>
+  </si>
+  <si>
+    <t>11A886197</t>
+  </si>
+  <si>
+    <t>1EA905861</t>
+  </si>
+  <si>
+    <t>11D959862B ZWK</t>
+  </si>
+  <si>
+    <t>11D035577D</t>
+  </si>
+  <si>
+    <t>11D035577A</t>
+  </si>
+  <si>
+    <t>11D723058A</t>
+  </si>
+  <si>
+    <t>11A837111</t>
+  </si>
+  <si>
+    <t>11D800375F</t>
+  </si>
+  <si>
+    <t>11D837901  041</t>
+  </si>
+  <si>
+    <t>11D837902  041</t>
+  </si>
+  <si>
+    <t>11D839901  041</t>
+  </si>
+  <si>
+    <t>11D839902  041</t>
+  </si>
+  <si>
+    <t>11D853271  UND</t>
+  </si>
+  <si>
+    <t>11D853272  UND</t>
+  </si>
+  <si>
+    <t>11G823535</t>
+  </si>
+  <si>
+    <t>11G823531</t>
+  </si>
+  <si>
+    <t>11D827535</t>
+  </si>
+  <si>
+    <t>11D857511  9B9</t>
+  </si>
+  <si>
+    <t>11D863920</t>
+  </si>
+  <si>
+    <t>WHT005353  001</t>
+  </si>
+  <si>
+    <t>N  91019701001</t>
+  </si>
+  <si>
+    <t>WHT005586</t>
+  </si>
+  <si>
+    <t>3CG959831  VBG</t>
+  </si>
+  <si>
+    <t>N  90686905</t>
+  </si>
+  <si>
+    <t>1EA825102C</t>
+  </si>
+  <si>
+    <t>11D880204E</t>
+  </si>
+  <si>
+    <t>11D857805A RAA</t>
+  </si>
+  <si>
+    <t>11D857806A RAA</t>
+  </si>
+  <si>
+    <t>11D857739A MNB</t>
+  </si>
+  <si>
+    <t>5WA907527A</t>
+  </si>
+  <si>
+    <t>11D035954</t>
+  </si>
+  <si>
+    <t>12D863885</t>
+  </si>
+  <si>
+    <t>8E0863861  001</t>
+  </si>
+  <si>
+    <t>11D863518</t>
+  </si>
+  <si>
+    <t>11D864417</t>
+  </si>
+  <si>
+    <t>22G419659A 6I5</t>
+  </si>
+  <si>
+    <t>22G419659A 5O6</t>
+  </si>
+  <si>
+    <t>22G419659A 4I8</t>
+  </si>
+  <si>
+    <t>11D880201G 6PS</t>
+  </si>
+  <si>
+    <t>11D419089A ZGT</t>
+  </si>
+  <si>
+    <t>22G419659  6I5</t>
+  </si>
+  <si>
+    <t>22G419659  5O6</t>
+  </si>
+  <si>
+    <t>22G419659  4I8</t>
+  </si>
+  <si>
+    <t>11D880741E</t>
+  </si>
+  <si>
+    <t>11D880742E</t>
+  </si>
+  <si>
+    <t>1ED820741B</t>
+  </si>
+  <si>
+    <t>1ED816732</t>
+  </si>
+  <si>
+    <t>1ED816721A</t>
+  </si>
+  <si>
+    <t>6RD819465C</t>
+  </si>
+  <si>
+    <t>11D853265  C9X</t>
+  </si>
+  <si>
+    <t>11D853266  C9X</t>
+  </si>
+  <si>
+    <t>1EB614105K</t>
+  </si>
+  <si>
+    <t>1EA614517K</t>
+  </si>
+  <si>
+    <t>11D853701A TO8</t>
+  </si>
+  <si>
+    <t>11D853701A ZGR</t>
+  </si>
+  <si>
+    <t>11D853701A ZGS</t>
+  </si>
+  <si>
+    <t>11D853702A TO8</t>
+  </si>
+  <si>
+    <t>11D853702A ZGR</t>
+  </si>
+  <si>
+    <t>11D853702A ZGS</t>
+  </si>
+  <si>
+    <t>11D853377A TO8</t>
+  </si>
+  <si>
+    <t>11D853377A ZGR</t>
+  </si>
+  <si>
+    <t>11D853377A ZGS</t>
+  </si>
+  <si>
+    <t>11D853378A TO8</t>
+  </si>
+  <si>
+    <t>11D853378A ZGR</t>
+  </si>
+  <si>
+    <t>11D853378A ZGS</t>
+  </si>
+  <si>
+    <t>1EA915331C</t>
+  </si>
+  <si>
+    <t>1EA802149A</t>
+  </si>
+  <si>
+    <t>1EA802150A</t>
+  </si>
+  <si>
+    <t>1EA971796B</t>
+  </si>
+  <si>
+    <t>1EA971796C</t>
+  </si>
+  <si>
+    <t>1ED260377</t>
+  </si>
+  <si>
+    <t>11D805367A</t>
+  </si>
+  <si>
+    <t>11A823405A</t>
+  </si>
+  <si>
+    <t>11A823406A</t>
+  </si>
+  <si>
+    <t>11A825523</t>
+  </si>
+  <si>
+    <t>11D868223  4PK</t>
+  </si>
+  <si>
+    <t>11D868224  4PK</t>
+  </si>
+  <si>
+    <t>11D863483  4PK</t>
+  </si>
+  <si>
+    <t>11D863484  4PK</t>
+  </si>
+  <si>
+    <t>11D867291  4PK</t>
+  </si>
+  <si>
+    <t>11D867292  4PK</t>
+  </si>
+  <si>
+    <t>11D867765  4PK</t>
+  </si>
+  <si>
+    <t>11D867766  4PK</t>
+  </si>
+  <si>
+    <t>11D853371  4PK</t>
+  </si>
+  <si>
+    <t>11D853372  4PK</t>
+  </si>
+  <si>
+    <t>11A868437A 4PK</t>
+  </si>
+  <si>
+    <t>11A868438  4PK</t>
+  </si>
+  <si>
+    <t>11D827520  4PK</t>
+  </si>
+  <si>
+    <t>11D863459  4PK</t>
+  </si>
+  <si>
+    <t>6RD823533A 4PK</t>
+  </si>
+  <si>
+    <t>11D805367</t>
+  </si>
+  <si>
+    <t>11A962283A</t>
+  </si>
+  <si>
+    <t>1EA971394A</t>
+  </si>
+  <si>
+    <t>1EA971827</t>
+  </si>
+  <si>
+    <t>1EA825236C</t>
+  </si>
+  <si>
+    <t>1EA971341</t>
+  </si>
+  <si>
+    <t>1EA971342A</t>
+  </si>
+  <si>
+    <t>1ED512182</t>
+  </si>
+  <si>
+    <t>10A971923</t>
+  </si>
+  <si>
+    <t>11D807210</t>
+  </si>
+  <si>
+    <t>5JA827250B</t>
+  </si>
+  <si>
+    <t>11D853687A 2ZZ</t>
+  </si>
+  <si>
+    <t>11D853687  2ZZ</t>
+  </si>
+  <si>
+    <t>11D853675  2ZZ</t>
+  </si>
+  <si>
+    <t>1ED816743</t>
+  </si>
+  <si>
+    <t>1ED820739</t>
+  </si>
+  <si>
+    <t>11D867601  4PK</t>
+  </si>
+  <si>
+    <t>11D867703  4PK</t>
+  </si>
+  <si>
+    <t>11D867704  4PK</t>
+  </si>
+  <si>
+    <t>11D867707  4PK</t>
+  </si>
+  <si>
+    <t>5WA962131C</t>
+  </si>
+  <si>
+    <t>5WA962132</t>
+  </si>
+  <si>
+    <t>5HG959753B AUD</t>
+  </si>
+  <si>
+    <t>2QD907685C</t>
+  </si>
+  <si>
+    <t>2QD907686C</t>
+  </si>
+  <si>
+    <t>11A864725</t>
+  </si>
+  <si>
+    <t>11D864711</t>
+  </si>
+  <si>
+    <t>11A864237</t>
+  </si>
+  <si>
+    <t>11A864239</t>
+  </si>
+  <si>
+    <t>11D807248A</t>
+  </si>
+  <si>
+    <t>11G955704  9B9</t>
+  </si>
+  <si>
+    <t>5HG955711</t>
+  </si>
+  <si>
+    <t>11D845011E</t>
+  </si>
+  <si>
+    <t>11D827566</t>
+  </si>
+  <si>
+    <t>1ED907299</t>
+  </si>
+  <si>
+    <t>1ED907190</t>
+  </si>
+  <si>
+    <t>1EA915681CA</t>
+  </si>
+  <si>
+    <t>11D959561B ZEW</t>
+  </si>
+  <si>
+    <t>11D959561D ZEW</t>
+  </si>
+  <si>
+    <t>11D827851</t>
+  </si>
+  <si>
+    <t>1ED121068</t>
+  </si>
+  <si>
+    <t>11D805303</t>
+  </si>
+  <si>
+    <t>1EA971844</t>
+  </si>
+  <si>
+    <t>11D837767</t>
+  </si>
+  <si>
+    <t>1ED885321</t>
+  </si>
+  <si>
+    <t>11D837701A 5AP</t>
+  </si>
+  <si>
+    <t>11D867911B</t>
+  </si>
+  <si>
+    <t>11D837439B</t>
+  </si>
+  <si>
+    <t>11D837701  5AP</t>
+  </si>
+  <si>
+    <t>11D867912B</t>
+  </si>
+  <si>
+    <t>11D837440B</t>
+  </si>
+  <si>
+    <t>11D837702  5AP</t>
+  </si>
+  <si>
+    <t>11D867913B 5AP</t>
+  </si>
+  <si>
+    <t>11D839439A</t>
+  </si>
+  <si>
+    <t>11D867914B</t>
+  </si>
+  <si>
+    <t>11D839440A</t>
+  </si>
+  <si>
+    <t>N  90558401</t>
+  </si>
+  <si>
+    <t>1ED121095A</t>
+  </si>
+  <si>
+    <t>N  10515101001</t>
+  </si>
+  <si>
+    <t>11A854541</t>
+  </si>
+  <si>
+    <t>11A854542</t>
+  </si>
+  <si>
+    <t>11A809957A</t>
+  </si>
+  <si>
+    <t>11A809958A</t>
+  </si>
+  <si>
+    <t>1EA825271</t>
+  </si>
+  <si>
+    <t>1EA501731A</t>
+  </si>
+  <si>
+    <t>1EA501732A</t>
+  </si>
+  <si>
+    <t>11A854855</t>
+  </si>
+  <si>
+    <t>11A854856</t>
+  </si>
+  <si>
+    <t>1ED863353</t>
+  </si>
+  <si>
+    <t>1ED863248B</t>
+  </si>
+  <si>
+    <t>11D863935</t>
+  </si>
+  <si>
+    <t>1ED614723</t>
+  </si>
+  <si>
+    <t>1ED614724</t>
+  </si>
+  <si>
+    <t>1ED614725</t>
+  </si>
+  <si>
+    <t>1ED614726</t>
+  </si>
+  <si>
+    <t>1ED614739</t>
+  </si>
+  <si>
+    <t>1ED614740</t>
+  </si>
+  <si>
+    <t>1ED614741</t>
+  </si>
+  <si>
+    <t>1ED614742</t>
+  </si>
+  <si>
+    <t>1ED614781</t>
+  </si>
+  <si>
+    <t>1ED614782</t>
+  </si>
+  <si>
+    <t>11D823509A</t>
+  </si>
+  <si>
+    <t>3GD864886</t>
+  </si>
+  <si>
+    <t>1ED816087</t>
+  </si>
+  <si>
+    <t>11D861513</t>
+  </si>
+  <si>
+    <t>11A819335D 9B9</t>
+  </si>
+  <si>
+    <t>11A819336D 9B9</t>
+  </si>
+  <si>
+    <t>11B819403B 9B9</t>
+  </si>
+  <si>
+    <t>11D867427  9L4</t>
+  </si>
+  <si>
+    <t>11D867428  9L4</t>
+  </si>
+  <si>
+    <t>11D853855  9B9</t>
+  </si>
+  <si>
+    <t>11D853856  9B9</t>
+  </si>
+  <si>
+    <t>11D854939A BMO</t>
+  </si>
+  <si>
+    <t>11D854940A BMO</t>
+  </si>
+  <si>
+    <t>11D854949A BMO</t>
+  </si>
+  <si>
+    <t>11D854950A BMO</t>
+  </si>
+  <si>
+    <t>11D853717  9B9</t>
+  </si>
+  <si>
+    <t>11D853718  9B9</t>
+  </si>
+  <si>
+    <t>11D853817  9B9</t>
+  </si>
+  <si>
+    <t>11D853818  9B9</t>
+  </si>
+  <si>
+    <t>1ED121064</t>
+  </si>
+  <si>
+    <t>1ED122141</t>
+  </si>
+  <si>
+    <t>0MH301472A</t>
+  </si>
+  <si>
+    <t>11D857705A RAA</t>
+  </si>
+  <si>
+    <t>11D857706A RAA</t>
+  </si>
+  <si>
+    <t>1ED820807</t>
+  </si>
+  <si>
+    <t>11D945207</t>
+  </si>
+  <si>
+    <t>11D945427</t>
+  </si>
+  <si>
+    <t>11D945208</t>
+  </si>
+  <si>
+    <t>11D945428</t>
+  </si>
+  <si>
+    <t>11D945307</t>
+  </si>
+  <si>
+    <t>11D945426</t>
+  </si>
+  <si>
+    <t>11D945425</t>
+  </si>
+  <si>
+    <t>11D951206</t>
+  </si>
+  <si>
+    <t>5GG959855D VBG</t>
   </si>
 </sst>
 </file>
@@ -471,10 +1350,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="I314" sqref="I314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,17 +1388,17 @@
       </c>
       <c r="B2" s="3" t="str">
         <f>IF(COUNT(FIND(LEFT(A2,1),"N")),A2,(IF(ISERROR(SEARCH(" ",A2))=TRUE,A2,LEFT(A2,SEARCH(" ",A2)-1))))</f>
-        <v>2GG845011</v>
+        <v>11A813393</v>
       </c>
       <c r="C2" s="2">
-        <v>10007</v>
+        <v>11845</v>
       </c>
       <c r="D2" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="3">
         <f>VLOOKUP(C2,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003159</v>
+        <v>50267858</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -527,18 +1406,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B21" si="0">IF(COUNT(FIND(LEFT(A3,1),"N")),A3,(IF(ISERROR(SEARCH(" ",A3))=TRUE,A3,LEFT(A3,SEARCH(" ",A3)-1))))</f>
-        <v>2GG845011C</v>
+        <f t="shared" ref="B3:B66" si="0">IF(COUNT(FIND(LEFT(A3,1),"N")),A3,(IF(ISERROR(SEARCH(" ",A3))=TRUE,A3,LEFT(A3,SEARCH(" ",A3)-1))))</f>
+        <v>11A813394</v>
       </c>
       <c r="C3" s="2">
-        <v>10007</v>
+        <v>11845</v>
       </c>
       <c r="D3" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="3">
         <f>VLOOKUP(C3,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003159</v>
+        <v>50267858</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -547,17 +1426,17 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2GG845051E</v>
+        <v>11A804749</v>
       </c>
       <c r="C4" s="2">
-        <v>10007</v>
+        <v>11800</v>
       </c>
       <c r="D4" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="3">
         <f>VLOOKUP(C4,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003159</v>
+        <v>50245865</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -566,17 +1445,17 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2GG845051F</v>
+        <v>11A804750</v>
       </c>
       <c r="C5" s="2">
-        <v>10007</v>
+        <v>11800</v>
       </c>
       <c r="D5" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="3">
         <f>VLOOKUP(C5,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003159</v>
+        <v>50245865</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -585,17 +1464,17 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57D845021</v>
+        <v>11A809677</v>
       </c>
       <c r="C6" s="2">
-        <v>10007</v>
+        <v>11404</v>
       </c>
       <c r="D6" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="3">
         <f>VLOOKUP(C6,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003159</v>
+        <v>50103652</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -604,17 +1483,17 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57D845022</v>
+        <v>11A809678</v>
       </c>
       <c r="C7" s="2">
-        <v>10007</v>
+        <v>11404</v>
       </c>
       <c r="D7" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="3">
         <f>VLOOKUP(C7,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003159</v>
+        <v>50103652</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -623,17 +1502,17 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57D845025</v>
+        <v>11A833457</v>
       </c>
       <c r="C8" s="2">
-        <v>10007</v>
+        <v>11404</v>
       </c>
       <c r="D8" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
         <f>VLOOKUP(C8,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003159</v>
+        <v>50103652</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -642,17 +1521,17 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57D845026</v>
+        <v>11A833458</v>
       </c>
       <c r="C9" s="2">
-        <v>10007</v>
+        <v>11404</v>
       </c>
       <c r="D9" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
         <f>VLOOKUP(C9,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003159</v>
+        <v>50103652</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -661,17 +1540,17 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2GG810971</v>
+        <v>3CG827299</v>
       </c>
       <c r="C10" s="2">
-        <v>10012</v>
+        <v>11365</v>
       </c>
       <c r="D10" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="3">
         <f>VLOOKUP(C10,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003148</v>
+        <v>50080550</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -680,17 +1559,17 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2GG810972</v>
+        <v>11D831507</v>
       </c>
       <c r="C11" s="2">
-        <v>10012</v>
+        <v>10942</v>
       </c>
       <c r="D11" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="3">
         <f>VLOOKUP(C11,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003148</v>
+        <v>50001765</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -699,17 +1578,17 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2GG863367</v>
+        <v>11D831508</v>
       </c>
       <c r="C12" s="2">
-        <v>10012</v>
+        <v>10942</v>
       </c>
       <c r="D12" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="3">
         <f>VLOOKUP(C12,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003148</v>
+        <v>50001765</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -718,17 +1597,17 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2GG867769</v>
+        <v>11D833507</v>
       </c>
       <c r="C13" s="2">
-        <v>10012</v>
+        <v>10942</v>
       </c>
       <c r="D13" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="3">
         <f>VLOOKUP(C13,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003148</v>
+        <v>50001765</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -737,17 +1616,17 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>575863462</v>
+        <v>11D833508</v>
       </c>
       <c r="C14" s="2">
-        <v>10012</v>
+        <v>10942</v>
       </c>
       <c r="D14" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="3">
         <f>VLOOKUP(C14,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003148</v>
+        <v>50001765</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -756,17 +1635,17 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>19D959855</v>
+        <v>11A864637</v>
       </c>
       <c r="C15" s="2">
-        <v>10019</v>
+        <v>10874</v>
       </c>
       <c r="D15" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <f>VLOOKUP(C15,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003140</v>
+        <v>50002636</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -775,17 +1654,17 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>19D959857</v>
+        <v>11A864638</v>
       </c>
       <c r="C16" s="2">
-        <v>10019</v>
+        <v>10874</v>
       </c>
       <c r="D16" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="3">
         <f>VLOOKUP(C16,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003140</v>
+        <v>50002636</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -794,17 +1673,17 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57D837461</v>
+        <v>11A864565</v>
       </c>
       <c r="C17" s="2">
-        <v>10019</v>
+        <v>10874</v>
       </c>
       <c r="D17" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <f>VLOOKUP(C17,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003140</v>
+        <v>50002636</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -813,17 +1692,17 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57D837462</v>
+        <v>11A864003</v>
       </c>
       <c r="C18" s="2">
-        <v>10019</v>
+        <v>10874</v>
       </c>
       <c r="D18" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="3">
         <f>VLOOKUP(C18,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003140</v>
+        <v>50002636</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -832,17 +1711,17 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57D839461</v>
+        <v>11A864015</v>
       </c>
       <c r="C19" s="2">
-        <v>10019</v>
+        <v>10874</v>
       </c>
       <c r="D19" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="3">
         <f>VLOOKUP(C19,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003140</v>
+        <v>50002636</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -851,17 +1730,17 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57D839462</v>
+        <v>11D864621</v>
       </c>
       <c r="C20" s="2">
-        <v>10019</v>
+        <v>10874</v>
       </c>
       <c r="D20" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
         <f>VLOOKUP(C20,SUPPLIER_ID!$A:$B,2,0)</f>
-        <v>50003140</v>
+        <v>50002636</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -870,21 +1749,5626 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57D951206B</v>
+        <v>11A864633</v>
       </c>
       <c r="C21" s="2">
-        <v>10019</v>
+        <v>10874</v>
       </c>
       <c r="D21" s="2">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="3">
         <f>VLOOKUP(C21,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A864663</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10874</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
+        <f>VLOOKUP(C22,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A864627A</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10874</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
+        <f>VLOOKUP(C23,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A864566</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10874</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
+        <f>VLOOKUP(C24,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A864016</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10874</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="3">
+        <f>VLOOKUP(C25,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D864622</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10874</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
+        <f>VLOOKUP(C26,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A864634</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10874</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
+        <f>VLOOKUP(C27,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A864664</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10874</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="3">
+        <f>VLOOKUP(C28,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A864628A</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10874</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="3">
+        <f>VLOOKUP(C29,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D817123</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10376</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="3">
+        <f>VLOOKUP(C30,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D817123A</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10376</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="3">
+        <f>VLOOKUP(C31,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1EA803884E</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10376</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
+        <f>VLOOKUP(C32,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D810421</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10376</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
+        <f>VLOOKUP(C33,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D810422</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10376</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="3">
+        <f>VLOOKUP(C34,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1EA810425A</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10375</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
+        <f>VLOOKUP(C35,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002770</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1EA810426A</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10375</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="3">
+        <f>VLOOKUP(C36,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002770</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D827741</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10235</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="3">
+        <f>VLOOKUP(C37,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D827742</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10235</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E38" s="3">
+        <f>VLOOKUP(C38,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1EA802311</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10222</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="3">
+        <f>VLOOKUP(C39,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1EA813541</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10172</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="3">
+        <f>VLOOKUP(C40,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1EA813695</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10172</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
+        <f>VLOOKUP(C41,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1EA868741</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10172</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3">
+        <f>VLOOKUP(C42,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1EA813696</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10172</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
+        <f>VLOOKUP(C43,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1EA813542</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10172</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
+        <f>VLOOKUP(C44,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1EA868742B</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10172</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
+        <f>VLOOKUP(C45,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A817421</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10160</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <f>VLOOKUP(C46,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A817369</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10160</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
+        <f>VLOOKUP(C47,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A817771</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10160</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
+        <f>VLOOKUP(C48,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A817905</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10160</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
+        <f>VLOOKUP(C49,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A817422</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10160</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="3">
+        <f>VLOOKUP(C50,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002903</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A817370</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10160</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E51" s="3">
+        <f>VLOOKUP(C51,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002903</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A817772</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10160</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
+        <f>VLOOKUP(C52,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002903</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A817906</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10160</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E53" s="3">
+        <f>VLOOKUP(C53,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A833123</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10135</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
+        <f>VLOOKUP(C54,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002942</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A833124</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10135</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E55" s="3">
+        <f>VLOOKUP(C55,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002942</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D853688B</v>
+      </c>
+      <c r="C56" s="2">
+        <v>11906</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E56" s="3">
+        <f>VLOOKUP(C56,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50310850</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D853689B</v>
+      </c>
+      <c r="C57" s="2">
+        <v>11906</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <f>VLOOKUP(C57,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50310850</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D853688A</v>
+      </c>
+      <c r="C58" s="2">
+        <v>11906</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
+        <f>VLOOKUP(C58,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50310850</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D853689A</v>
+      </c>
+      <c r="C59" s="2">
+        <v>11906</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <f>VLOOKUP(C59,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50310850</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D839478</v>
+      </c>
+      <c r="C60" s="2">
+        <v>11896</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <f>VLOOKUP(C60,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50286866</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D839477</v>
+      </c>
+      <c r="C61" s="2">
+        <v>11896</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
+        <f>VLOOKUP(C61,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50286866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A837477</v>
+      </c>
+      <c r="C62" s="2">
+        <v>11896</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <f>VLOOKUP(C62,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50286866</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A837478</v>
+      </c>
+      <c r="C63" s="2">
+        <v>11896</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E63" s="3">
+        <f>VLOOKUP(C63,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50286866</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A839477</v>
+      </c>
+      <c r="C64" s="2">
+        <v>11896</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E64" s="3">
+        <f>VLOOKUP(C64,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50286866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11A839478</v>
+      </c>
+      <c r="C65" s="2">
+        <v>11896</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E65" s="3">
+        <f>VLOOKUP(C65,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50286866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11D854327</v>
+      </c>
+      <c r="C66" s="2">
+        <v>11896</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <f>VLOOKUP(C66,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50286866</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="3" t="str">
+        <f t="shared" ref="B67:B130" si="1">IF(COUNT(FIND(LEFT(A67,1),"N")),A67,(IF(ISERROR(SEARCH(" ",A67))=TRUE,A67,LEFT(A67,SEARCH(" ",A67)-1))))</f>
+        <v>11D854328</v>
+      </c>
+      <c r="C67" s="2">
+        <v>11896</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E67" s="3">
+        <f>VLOOKUP(C67,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50286866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED959651</v>
+      </c>
+      <c r="C68" s="2">
+        <v>11871</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E68" s="3">
+        <f>VLOOKUP(C68,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211867</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED959655H</v>
+      </c>
+      <c r="C69" s="2">
+        <v>11871</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E69" s="3">
+        <f>VLOOKUP(C69,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211867</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED959354</v>
+      </c>
+      <c r="C70" s="2">
+        <v>11871</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E70" s="3">
+        <f>VLOOKUP(C70,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211867</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1EA611794A</v>
+      </c>
+      <c r="C71" s="2">
+        <v>11845</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E71" s="3">
+        <f>VLOOKUP(C71,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50267858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1EA611841C</v>
+      </c>
+      <c r="C72" s="2">
+        <v>11845</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E72" s="3">
+        <f>VLOOKUP(C72,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50267858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1EA611842C</v>
+      </c>
+      <c r="C73" s="2">
+        <v>11845</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E73" s="3">
+        <f>VLOOKUP(C73,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50267858</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11A827427A</v>
+      </c>
+      <c r="C74" s="2">
+        <v>11845</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E74" s="3">
+        <f>VLOOKUP(C74,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50267858</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11A827428A</v>
+      </c>
+      <c r="C75" s="2">
+        <v>11845</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E75" s="3">
+        <f>VLOOKUP(C75,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50267858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED816111</v>
+      </c>
+      <c r="C76" s="2">
+        <v>11708</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="3">
+        <f>VLOOKUP(C76,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50203850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED122101B</v>
+      </c>
+      <c r="C77" s="2">
+        <v>11690</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E77" s="3">
+        <f>VLOOKUP(C77,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211858</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED122109</v>
+      </c>
+      <c r="C78" s="2">
+        <v>11690</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E78" s="3">
+        <f>VLOOKUP(C78,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED122109A</v>
+      </c>
+      <c r="C79" s="2">
+        <v>11690</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E79" s="3">
+        <f>VLOOKUP(C79,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211858</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED121449</v>
+      </c>
+      <c r="C80" s="2">
+        <v>11690</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E80" s="3">
+        <f>VLOOKUP(C80,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED121036</v>
+      </c>
+      <c r="C81" s="2">
+        <v>11690</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
+        <f>VLOOKUP(C81,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211858</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED121054A</v>
+      </c>
+      <c r="C82" s="2">
+        <v>11690</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E82" s="3">
+        <f>VLOOKUP(C82,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211858</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED121621</v>
+      </c>
+      <c r="C83" s="2">
+        <v>11690</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
+        <f>VLOOKUP(C83,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED121157</v>
+      </c>
+      <c r="C84" s="2">
+        <v>11690</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E84" s="3">
+        <f>VLOOKUP(C84,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211858</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED121052</v>
+      </c>
+      <c r="C85" s="2">
+        <v>11690</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E85" s="3">
+        <f>VLOOKUP(C85,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50211858</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D827939</v>
+      </c>
+      <c r="C86" s="2">
+        <v>11575</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E86" s="3">
+        <f>VLOOKUP(C86,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50167805</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D827940</v>
+      </c>
+      <c r="C87" s="2">
+        <v>11575</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E87" s="3">
+        <f>VLOOKUP(C87,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50167805</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D601171</v>
+      </c>
+      <c r="C88" s="2">
+        <v>11570</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E88" s="3">
+        <f>VLOOKUP(C88,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50165800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>5QD906457</v>
+      </c>
+      <c r="C89" s="2">
+        <v>11566</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
+        <f>VLOOKUP(C89,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50158800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1EA980556B</v>
+      </c>
+      <c r="C90" s="2">
+        <v>11565</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E90" s="3">
+        <f>VLOOKUP(C90,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50050500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>5WA035507A</v>
+      </c>
+      <c r="C91" s="2">
+        <v>11536</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E91" s="3">
+        <f>VLOOKUP(C91,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50131800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED901131C</v>
+      </c>
+      <c r="C92" s="2">
+        <v>11504</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E92" s="3">
+        <f>VLOOKUP(C92,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50142804</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED965567B</v>
+      </c>
+      <c r="C93" s="2">
+        <v>11487</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E93" s="3">
+        <f>VLOOKUP(C93,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50123756</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED965567C</v>
+      </c>
+      <c r="C94" s="2">
+        <v>11487</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E94" s="3">
+        <f>VLOOKUP(C94,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50123756</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>N  90737107</v>
+      </c>
+      <c r="C95" s="2">
+        <v>11471</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E95" s="3">
+        <f>VLOOKUP(C95,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50092600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1EA971393A</v>
+      </c>
+      <c r="C96" s="2">
+        <v>11420</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E96" s="3">
+        <f>VLOOKUP(C96,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50096751</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>3GD827887B</v>
+      </c>
+      <c r="C97" s="2">
+        <v>11371</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E97" s="3">
+        <f>VLOOKUP(C97,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50069552</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D827506</v>
+      </c>
+      <c r="C98" s="2">
+        <v>11371</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E98" s="3">
+        <f>VLOOKUP(C98,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50069552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D837249</v>
+      </c>
+      <c r="C99" s="2">
+        <v>11365</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E99" s="3">
+        <f>VLOOKUP(C99,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50080550</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D839249</v>
+      </c>
+      <c r="C100" s="2">
+        <v>11365</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
+        <f>VLOOKUP(C100,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50080550</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D860033</v>
+      </c>
+      <c r="C101" s="2">
+        <v>11362</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
+        <f>VLOOKUP(C101,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50096800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D860034</v>
+      </c>
+      <c r="C102" s="2">
+        <v>11362</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <f>VLOOKUP(C102,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50096800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D853537</v>
+      </c>
+      <c r="C103" s="2">
+        <v>11362</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E103" s="3">
+        <f>VLOOKUP(C103,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50096800</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D853538</v>
+      </c>
+      <c r="C104" s="2">
+        <v>11362</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E104" s="3">
+        <f>VLOOKUP(C104,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50096800</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D853539</v>
+      </c>
+      <c r="C105" s="2">
+        <v>11362</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E105" s="3">
+        <f>VLOOKUP(C105,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50096800</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D853540</v>
+      </c>
+      <c r="C106" s="2">
+        <v>11362</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E106" s="3">
+        <f>VLOOKUP(C106,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50096800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED611701A</v>
+      </c>
+      <c r="C107" s="2">
+        <v>11319</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E107" s="3">
+        <f>VLOOKUP(C107,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50066550</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1ED122050</v>
+      </c>
+      <c r="C108" s="2">
+        <v>11264</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E108" s="3">
+        <f>VLOOKUP(C108,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50023353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>5H0887233C</v>
+      </c>
+      <c r="C109" s="2">
+        <v>11264</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E109" s="3">
+        <f>VLOOKUP(C109,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50023353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11A886197</v>
+      </c>
+      <c r="C110" s="2">
+        <v>11264</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E110" s="3">
+        <f>VLOOKUP(C110,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50023353</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1EA905861</v>
+      </c>
+      <c r="C111" s="2">
+        <v>11256</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E111" s="3">
+        <f>VLOOKUP(C111,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D959862B</v>
+      </c>
+      <c r="C112" s="2">
+        <v>11256</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E112" s="3">
+        <f>VLOOKUP(C112,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D035577D</v>
+      </c>
+      <c r="C113" s="2">
+        <v>11235</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E113" s="3">
+        <f>VLOOKUP(C113,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50034452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D035577A</v>
+      </c>
+      <c r="C114" s="2">
+        <v>11235</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E114" s="3">
+        <f>VLOOKUP(C114,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50034452</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D723058A</v>
+      </c>
+      <c r="C115" s="2">
+        <v>11231</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E115" s="3">
+        <f>VLOOKUP(C115,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001054</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11A837111</v>
+      </c>
+      <c r="C116" s="2">
+        <v>11180</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E116" s="3">
+        <f>VLOOKUP(C116,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50005353</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D800375F</v>
+      </c>
+      <c r="C117" s="2">
+        <v>11171</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E117" s="3">
+        <f>VLOOKUP(C117,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001550</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D837901</v>
+      </c>
+      <c r="C118" s="2">
+        <v>11135</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E118" s="3">
+        <f>VLOOKUP(C118,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D837902</v>
+      </c>
+      <c r="C119" s="2">
+        <v>11135</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E119" s="3">
+        <f>VLOOKUP(C119,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D839901</v>
+      </c>
+      <c r="C120" s="2">
+        <v>11135</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E120" s="3">
+        <f>VLOOKUP(C120,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D839902</v>
+      </c>
+      <c r="C121" s="2">
+        <v>11135</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E121" s="3">
+        <f>VLOOKUP(C121,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D853271</v>
+      </c>
+      <c r="C122" s="2">
+        <v>11135</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E122" s="3">
+        <f>VLOOKUP(C122,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D853272</v>
+      </c>
+      <c r="C123" s="2">
+        <v>11135</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E123" s="3">
+        <f>VLOOKUP(C123,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11G823535</v>
+      </c>
+      <c r="C124" s="2">
+        <v>11071</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E124" s="3">
+        <f>VLOOKUP(C124,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001094</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11G823531</v>
+      </c>
+      <c r="C125" s="2">
+        <v>11071</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E125" s="3">
+        <f>VLOOKUP(C125,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001094</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D827535</v>
+      </c>
+      <c r="C126" s="2">
+        <v>11071</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E126" s="3">
+        <f>VLOOKUP(C126,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001094</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D857511</v>
+      </c>
+      <c r="C127" s="2">
+        <v>10993</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E127" s="3">
+        <f>VLOOKUP(C127,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>11D863920</v>
+      </c>
+      <c r="C128" s="2">
+        <v>10992</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E128" s="3">
+        <f>VLOOKUP(C128,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001244</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>WHT005353</v>
+      </c>
+      <c r="C129" s="2">
+        <v>10983</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E129" s="3">
+        <f>VLOOKUP(C129,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>N  91019701001</v>
+      </c>
+      <c r="C130" s="2">
+        <v>10983</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E130" s="3">
+        <f>VLOOKUP(C130,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001379</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="3" t="str">
+        <f t="shared" ref="B131:B194" si="2">IF(COUNT(FIND(LEFT(A131,1),"N")),A131,(IF(ISERROR(SEARCH(" ",A131))=TRUE,A131,LEFT(A131,SEARCH(" ",A131)-1))))</f>
+        <v>WHT005586</v>
+      </c>
+      <c r="C131" s="2">
+        <v>10968</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E131" s="3">
+        <f>VLOOKUP(C131,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>3CG959831</v>
+      </c>
+      <c r="C132" s="2">
+        <v>10955</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E132" s="3">
+        <f>VLOOKUP(C132,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002654</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>N  90686905</v>
+      </c>
+      <c r="C133" s="2">
+        <v>10950</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E133" s="3">
+        <f>VLOOKUP(C133,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1EA825102C</v>
+      </c>
+      <c r="C134" s="2">
+        <v>10939</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E134" s="3">
+        <f>VLOOKUP(C134,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002469</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D880204E</v>
+      </c>
+      <c r="C135" s="2">
+        <v>10920</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E135" s="3">
+        <f>VLOOKUP(C135,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D857805A</v>
+      </c>
+      <c r="C136" s="2">
+        <v>10920</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E136" s="3">
+        <f>VLOOKUP(C136,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D857806A</v>
+      </c>
+      <c r="C137" s="2">
+        <v>10920</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E137" s="3">
+        <f>VLOOKUP(C137,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D857739A</v>
+      </c>
+      <c r="C138" s="2">
+        <v>10920</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E138" s="3">
+        <f>VLOOKUP(C138,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>5WA907527A</v>
+      </c>
+      <c r="C139" s="2">
+        <v>10895</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E139" s="3">
+        <f>VLOOKUP(C139,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002022</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D035954</v>
+      </c>
+      <c r="C140" s="2">
+        <v>10891</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E140" s="3">
+        <f>VLOOKUP(C140,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001664</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>12D863885</v>
+      </c>
+      <c r="C141" s="2">
+        <v>10876</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E141" s="3">
+        <f>VLOOKUP(C141,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001626</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>8E0863861</v>
+      </c>
+      <c r="C142" s="2">
+        <v>10876</v>
+      </c>
+      <c r="D142" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E142" s="3">
+        <f>VLOOKUP(C142,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50001626</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D863518</v>
+      </c>
+      <c r="C143" s="2">
+        <v>10874</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E143" s="3">
+        <f>VLOOKUP(C143,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D864417</v>
+      </c>
+      <c r="C144" s="2">
+        <v>10874</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E144" s="3">
+        <f>VLOOKUP(C144,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002636</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B145" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D837249</v>
+      </c>
+      <c r="C145" s="2">
+        <v>10860</v>
+      </c>
+      <c r="D145" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E145" s="3">
+        <f>VLOOKUP(C145,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002637</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B146" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D839249</v>
+      </c>
+      <c r="C146" s="2">
+        <v>10860</v>
+      </c>
+      <c r="D146" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E146" s="3">
+        <f>VLOOKUP(C146,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002637</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>22G419659A</v>
+      </c>
+      <c r="C147" s="2">
+        <v>10855</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E147" s="3">
+        <f>VLOOKUP(C147,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002643</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>22G419659A</v>
+      </c>
+      <c r="C148" s="2">
+        <v>10855</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E148" s="3">
+        <f>VLOOKUP(C148,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002643</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>22G419659A</v>
+      </c>
+      <c r="C149" s="2">
+        <v>10855</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E149" s="3">
+        <f>VLOOKUP(C149,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002643</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D880201G</v>
+      </c>
+      <c r="C150" s="2">
+        <v>10855</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E150" s="3">
+        <f>VLOOKUP(C150,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002643</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D419089A</v>
+      </c>
+      <c r="C151" s="2">
+        <v>10855</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E151" s="3">
+        <f>VLOOKUP(C151,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002643</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>22G419659</v>
+      </c>
+      <c r="C152" s="2">
+        <v>10855</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E152" s="3">
+        <f>VLOOKUP(C152,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002643</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>22G419659</v>
+      </c>
+      <c r="C153" s="2">
+        <v>10855</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E153" s="3">
+        <f>VLOOKUP(C153,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002643</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>22G419659</v>
+      </c>
+      <c r="C154" s="2">
+        <v>10855</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E154" s="3">
+        <f>VLOOKUP(C154,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002643</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D880741E</v>
+      </c>
+      <c r="C155" s="2">
+        <v>10855</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E155" s="3">
+        <f>VLOOKUP(C155,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002643</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D880742E</v>
+      </c>
+      <c r="C156" s="2">
+        <v>10855</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E156" s="3">
+        <f>VLOOKUP(C156,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002643</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1ED820741B</v>
+      </c>
+      <c r="C157" s="2">
+        <v>10846</v>
+      </c>
+      <c r="D157" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E157" s="3">
+        <f>VLOOKUP(C157,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002644</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1ED816732</v>
+      </c>
+      <c r="C158" s="2">
+        <v>10846</v>
+      </c>
+      <c r="D158" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E158" s="3">
+        <f>VLOOKUP(C158,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002644</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1ED816721A</v>
+      </c>
+      <c r="C159" s="2">
+        <v>10846</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E159" s="3">
+        <f>VLOOKUP(C159,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002644</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>6RD819465C</v>
+      </c>
+      <c r="C160" s="2">
+        <v>10809</v>
+      </c>
+      <c r="D160" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E160" s="3">
+        <f>VLOOKUP(C160,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002946</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853265</v>
+      </c>
+      <c r="C161" s="2">
+        <v>10785</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E161" s="3">
+        <f>VLOOKUP(C161,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002978</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853266</v>
+      </c>
+      <c r="C162" s="2">
+        <v>10785</v>
+      </c>
+      <c r="D162" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E162" s="3">
+        <f>VLOOKUP(C162,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002978</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1EB614105K</v>
+      </c>
+      <c r="C163" s="2">
+        <v>10780</v>
+      </c>
+      <c r="D163" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E163" s="3">
+        <f>VLOOKUP(C163,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002982</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1EA614517K</v>
+      </c>
+      <c r="C164" s="2">
+        <v>10780</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E164" s="3">
+        <f>VLOOKUP(C164,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002982</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853701A</v>
+      </c>
+      <c r="C165" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E165" s="3">
+        <f>VLOOKUP(C165,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853701A</v>
+      </c>
+      <c r="C166" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D166" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E166" s="3">
+        <f>VLOOKUP(C166,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853701A</v>
+      </c>
+      <c r="C167" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E167" s="3">
+        <f>VLOOKUP(C167,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853702A</v>
+      </c>
+      <c r="C168" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E168" s="3">
+        <f>VLOOKUP(C168,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853702A</v>
+      </c>
+      <c r="C169" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E169" s="3">
+        <f>VLOOKUP(C169,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853702A</v>
+      </c>
+      <c r="C170" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E170" s="3">
+        <f>VLOOKUP(C170,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853377A</v>
+      </c>
+      <c r="C171" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E171" s="3">
+        <f>VLOOKUP(C171,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853377A</v>
+      </c>
+      <c r="C172" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E172" s="3">
+        <f>VLOOKUP(C172,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853377A</v>
+      </c>
+      <c r="C173" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D173" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E173" s="3">
+        <f>VLOOKUP(C173,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853378A</v>
+      </c>
+      <c r="C174" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D174" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E174" s="3">
+        <f>VLOOKUP(C174,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853378A</v>
+      </c>
+      <c r="C175" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D175" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E175" s="3">
+        <f>VLOOKUP(C175,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D853378A</v>
+      </c>
+      <c r="C176" s="2">
+        <v>10434</v>
+      </c>
+      <c r="D176" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E176" s="3">
+        <f>VLOOKUP(C176,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002798</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1EA915331C</v>
+      </c>
+      <c r="C177" s="2">
+        <v>10376</v>
+      </c>
+      <c r="D177" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E177" s="3">
+        <f>VLOOKUP(C177,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002737</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1EA802149A</v>
+      </c>
+      <c r="C178" s="2">
+        <v>10376</v>
+      </c>
+      <c r="D178" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E178" s="3">
+        <f>VLOOKUP(C178,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002737</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1EA802150A</v>
+      </c>
+      <c r="C179" s="2">
+        <v>10376</v>
+      </c>
+      <c r="D179" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E179" s="3">
+        <f>VLOOKUP(C179,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002737</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1EA971796B</v>
+      </c>
+      <c r="C180" s="2">
+        <v>10376</v>
+      </c>
+      <c r="D180" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E180" s="3">
+        <f>VLOOKUP(C180,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002737</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1EA971796C</v>
+      </c>
+      <c r="C181" s="2">
+        <v>10376</v>
+      </c>
+      <c r="D181" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E181" s="3">
+        <f>VLOOKUP(C181,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002737</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1ED260377</v>
+      </c>
+      <c r="C182" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E182" s="3">
+        <f>VLOOKUP(C182,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D805367A</v>
+      </c>
+      <c r="C183" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D183" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E183" s="3">
+        <f>VLOOKUP(C183,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11A823405A</v>
+      </c>
+      <c r="C184" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D184" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E184" s="3">
+        <f>VLOOKUP(C184,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11A823406A</v>
+      </c>
+      <c r="C185" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D185" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E185" s="3">
+        <f>VLOOKUP(C185,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11A825523</v>
+      </c>
+      <c r="C186" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D186" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E186" s="3">
+        <f>VLOOKUP(C186,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D868223</v>
+      </c>
+      <c r="C187" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D187" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E187" s="3">
+        <f>VLOOKUP(C187,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D868224</v>
+      </c>
+      <c r="C188" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D188" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E188" s="3">
+        <f>VLOOKUP(C188,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D863483</v>
+      </c>
+      <c r="C189" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D189" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E189" s="3">
+        <f>VLOOKUP(C189,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D863484</v>
+      </c>
+      <c r="C190" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D190" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E190" s="3">
+        <f>VLOOKUP(C190,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D867291</v>
+      </c>
+      <c r="C191" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D191" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E191" s="3">
+        <f>VLOOKUP(C191,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D867292</v>
+      </c>
+      <c r="C192" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D192" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E192" s="3">
+        <f>VLOOKUP(C192,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D867765</v>
+      </c>
+      <c r="C193" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E193" s="3">
+        <f>VLOOKUP(C193,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>11D867766</v>
+      </c>
+      <c r="C194" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D194" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E194" s="3">
+        <f>VLOOKUP(C194,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="3" t="str">
+        <f t="shared" ref="B195:B258" si="3">IF(COUNT(FIND(LEFT(A195,1),"N")),A195,(IF(ISERROR(SEARCH(" ",A195))=TRUE,A195,LEFT(A195,SEARCH(" ",A195)-1))))</f>
+        <v>11D853371</v>
+      </c>
+      <c r="C195" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D195" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E195" s="3">
+        <f>VLOOKUP(C195,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D853372</v>
+      </c>
+      <c r="C196" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D196" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E196" s="3">
+        <f>VLOOKUP(C196,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11A868437A</v>
+      </c>
+      <c r="C197" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D197" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E197" s="3">
+        <f>VLOOKUP(C197,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11A868438</v>
+      </c>
+      <c r="C198" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D198" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E198" s="3">
+        <f>VLOOKUP(C198,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D827520</v>
+      </c>
+      <c r="C199" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D199" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E199" s="3">
+        <f>VLOOKUP(C199,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D863459</v>
+      </c>
+      <c r="C200" s="2">
+        <v>10367</v>
+      </c>
+      <c r="D200" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E200" s="3">
+        <f>VLOOKUP(C200,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002694</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>6RD823533A</v>
+      </c>
+      <c r="C201" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D201" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E201" s="3">
+        <f>VLOOKUP(C201,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D805367</v>
+      </c>
+      <c r="C202" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D202" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E202" s="3">
+        <f>VLOOKUP(C202,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11A962283A</v>
+      </c>
+      <c r="C203" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D203" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E203" s="3">
+        <f>VLOOKUP(C203,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1EA971394A</v>
+      </c>
+      <c r="C204" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D204" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E204" s="3">
+        <f>VLOOKUP(C204,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1EA971827</v>
+      </c>
+      <c r="C205" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D205" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E205" s="3">
+        <f>VLOOKUP(C205,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1EA825236C</v>
+      </c>
+      <c r="C206" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D206" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E206" s="3">
+        <f>VLOOKUP(C206,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1EA971341</v>
+      </c>
+      <c r="C207" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D207" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E207" s="3">
+        <f>VLOOKUP(C207,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1EA971342A</v>
+      </c>
+      <c r="C208" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D208" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E208" s="3">
+        <f>VLOOKUP(C208,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1ED512182</v>
+      </c>
+      <c r="C209" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D209" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E209" s="3">
+        <f>VLOOKUP(C209,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>10A971923</v>
+      </c>
+      <c r="C210" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D210" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E210" s="3">
+        <f>VLOOKUP(C210,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D807210</v>
+      </c>
+      <c r="C211" s="2">
+        <v>10360</v>
+      </c>
+      <c r="D211" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E211" s="3">
+        <f>VLOOKUP(C211,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002698</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>5JA827250B</v>
+      </c>
+      <c r="C212" s="2">
+        <v>10309</v>
+      </c>
+      <c r="D212" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E212" s="3">
+        <f>VLOOKUP(C212,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002720</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D853687A</v>
+      </c>
+      <c r="C213" s="2">
+        <v>10291</v>
+      </c>
+      <c r="D213" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E213" s="3">
+        <f>VLOOKUP(C213,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002754</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D853687</v>
+      </c>
+      <c r="C214" s="2">
+        <v>10291</v>
+      </c>
+      <c r="D214" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E214" s="3">
+        <f>VLOOKUP(C214,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002754</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D853675</v>
+      </c>
+      <c r="C215" s="2">
+        <v>10291</v>
+      </c>
+      <c r="D215" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E215" s="3">
+        <f>VLOOKUP(C215,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002754</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1ED816743</v>
+      </c>
+      <c r="C216" s="2">
+        <v>10287</v>
+      </c>
+      <c r="D216" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E216" s="3">
+        <f>VLOOKUP(C216,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002756</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1ED820739</v>
+      </c>
+      <c r="C217" s="2">
+        <v>10287</v>
+      </c>
+      <c r="D217" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E217" s="3">
+        <f>VLOOKUP(C217,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002756</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D867601</v>
+      </c>
+      <c r="C218" s="2">
+        <v>10283</v>
+      </c>
+      <c r="D218" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E218" s="3">
+        <f>VLOOKUP(C218,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002765</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D867703</v>
+      </c>
+      <c r="C219" s="2">
+        <v>10283</v>
+      </c>
+      <c r="D219" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E219" s="3">
+        <f>VLOOKUP(C219,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002765</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D867704</v>
+      </c>
+      <c r="C220" s="2">
+        <v>10283</v>
+      </c>
+      <c r="D220" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E220" s="3">
+        <f>VLOOKUP(C220,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002765</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D867707</v>
+      </c>
+      <c r="C221" s="2">
+        <v>10283</v>
+      </c>
+      <c r="D221" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E221" s="3">
+        <f>VLOOKUP(C221,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002765</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>5WA962131C</v>
+      </c>
+      <c r="C222" s="2">
+        <v>10276</v>
+      </c>
+      <c r="D222" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E222" s="3">
+        <f>VLOOKUP(C222,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002773</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>5WA962132</v>
+      </c>
+      <c r="C223" s="2">
+        <v>10276</v>
+      </c>
+      <c r="D223" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E223" s="3">
+        <f>VLOOKUP(C223,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002773</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>5HG959753B</v>
+      </c>
+      <c r="C224" s="2">
+        <v>10276</v>
+      </c>
+      <c r="D224" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E224" s="3">
+        <f>VLOOKUP(C224,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002773</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2QD907685C</v>
+      </c>
+      <c r="C225" s="2">
+        <v>10276</v>
+      </c>
+      <c r="D225" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E225" s="3">
+        <f>VLOOKUP(C225,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002773</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>2QD907686C</v>
+      </c>
+      <c r="C226" s="2">
+        <v>10276</v>
+      </c>
+      <c r="D226" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E226" s="3">
+        <f>VLOOKUP(C226,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002773</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11A864725</v>
+      </c>
+      <c r="C227" s="2">
+        <v>10264</v>
+      </c>
+      <c r="D227" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E227" s="3">
+        <f>VLOOKUP(C227,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002787</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D864711</v>
+      </c>
+      <c r="C228" s="2">
+        <v>10264</v>
+      </c>
+      <c r="D228" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E228" s="3">
+        <f>VLOOKUP(C228,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002787</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11A864237</v>
+      </c>
+      <c r="C229" s="2">
+        <v>10264</v>
+      </c>
+      <c r="D229" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E229" s="3">
+        <f>VLOOKUP(C229,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002787</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11A864239</v>
+      </c>
+      <c r="C230" s="2">
+        <v>10264</v>
+      </c>
+      <c r="D230" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E230" s="3">
+        <f>VLOOKUP(C230,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002787</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D807248A</v>
+      </c>
+      <c r="C231" s="2">
+        <v>10264</v>
+      </c>
+      <c r="D231" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E231" s="3">
+        <f>VLOOKUP(C231,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002787</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11G955704</v>
+      </c>
+      <c r="C232" s="2">
+        <v>10261</v>
+      </c>
+      <c r="D232" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E232" s="3">
+        <f>VLOOKUP(C232,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002790</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>5HG955711</v>
+      </c>
+      <c r="C233" s="2">
+        <v>10261</v>
+      </c>
+      <c r="D233" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E233" s="3">
+        <f>VLOOKUP(C233,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002790</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D845011E</v>
+      </c>
+      <c r="C234" s="2">
+        <v>10258</v>
+      </c>
+      <c r="D234" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E234" s="3">
+        <f>VLOOKUP(C234,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002793</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D827566</v>
+      </c>
+      <c r="C235" s="2">
+        <v>10254</v>
+      </c>
+      <c r="D235" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E235" s="3">
+        <f>VLOOKUP(C235,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002799</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1ED907299</v>
+      </c>
+      <c r="C236" s="2">
+        <v>10251</v>
+      </c>
+      <c r="D236" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E236" s="3">
+        <f>VLOOKUP(C236,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002802</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1ED907190</v>
+      </c>
+      <c r="C237" s="2">
+        <v>10251</v>
+      </c>
+      <c r="D237" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E237" s="3">
+        <f>VLOOKUP(C237,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002802</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1EA915681CA</v>
+      </c>
+      <c r="C238" s="2">
+        <v>10237</v>
+      </c>
+      <c r="D238" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E238" s="3">
+        <f>VLOOKUP(C238,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002821</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D959561B</v>
+      </c>
+      <c r="C239" s="2">
+        <v>10237</v>
+      </c>
+      <c r="D239" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E239" s="3">
+        <f>VLOOKUP(C239,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002821</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D959561D</v>
+      </c>
+      <c r="C240" s="2">
+        <v>10237</v>
+      </c>
+      <c r="D240" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E240" s="3">
+        <f>VLOOKUP(C240,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002821</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D827851</v>
+      </c>
+      <c r="C241" s="2">
+        <v>10220</v>
+      </c>
+      <c r="D241" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E241" s="3">
+        <f>VLOOKUP(C241,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002837</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1ED121068</v>
+      </c>
+      <c r="C242" s="2">
+        <v>10207</v>
+      </c>
+      <c r="D242" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E242" s="3">
+        <f>VLOOKUP(C242,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002851</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D805303</v>
+      </c>
+      <c r="C243" s="2">
+        <v>10207</v>
+      </c>
+      <c r="D243" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E243" s="3">
+        <f>VLOOKUP(C243,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002851</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1EA971844</v>
+      </c>
+      <c r="C244" s="2">
+        <v>10207</v>
+      </c>
+      <c r="D244" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E244" s="3">
+        <f>VLOOKUP(C244,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002851</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D837767</v>
+      </c>
+      <c r="C245" s="2">
+        <v>10207</v>
+      </c>
+      <c r="D245" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E245" s="3">
+        <f>VLOOKUP(C245,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002851</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>1ED885321</v>
+      </c>
+      <c r="C246" s="2">
+        <v>10207</v>
+      </c>
+      <c r="D246" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E246" s="3">
+        <f>VLOOKUP(C246,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002851</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D837701A</v>
+      </c>
+      <c r="C247" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D247" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E247" s="3">
+        <f>VLOOKUP(C247,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D867911B</v>
+      </c>
+      <c r="C248" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D248" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E248" s="3">
+        <f>VLOOKUP(C248,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D837439B</v>
+      </c>
+      <c r="C249" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D249" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E249" s="3">
+        <f>VLOOKUP(C249,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D837701</v>
+      </c>
+      <c r="C250" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D250" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E250" s="3">
+        <f>VLOOKUP(C250,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D867912B</v>
+      </c>
+      <c r="C251" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D251" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E251" s="3">
+        <f>VLOOKUP(C251,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D837440B</v>
+      </c>
+      <c r="C252" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D252" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E252" s="3">
+        <f>VLOOKUP(C252,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D837702</v>
+      </c>
+      <c r="C253" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D253" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E253" s="3">
+        <f>VLOOKUP(C253,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D867913B</v>
+      </c>
+      <c r="C254" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D254" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E254" s="3">
+        <f>VLOOKUP(C254,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B255" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D839439A</v>
+      </c>
+      <c r="C255" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D255" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E255" s="3">
+        <f>VLOOKUP(C255,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D867914B</v>
+      </c>
+      <c r="C256" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D256" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E256" s="3">
+        <f>VLOOKUP(C256,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B257" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>11D839440A</v>
+      </c>
+      <c r="C257" s="2">
+        <v>10203</v>
+      </c>
+      <c r="D257" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E257" s="3">
+        <f>VLOOKUP(C257,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002855</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B258" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>N  90558401</v>
+      </c>
+      <c r="C258" s="2">
+        <v>10201</v>
+      </c>
+      <c r="D258" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E258" s="3">
+        <f>VLOOKUP(C258,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002857</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B259" s="3" t="str">
+        <f t="shared" ref="B259:B316" si="4">IF(COUNT(FIND(LEFT(A259,1),"N")),A259,(IF(ISERROR(SEARCH(" ",A259))=TRUE,A259,LEFT(A259,SEARCH(" ",A259)-1))))</f>
+        <v>1ED121095A</v>
+      </c>
+      <c r="C259" s="2">
+        <v>10201</v>
+      </c>
+      <c r="D259" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E259" s="3">
+        <f>VLOOKUP(C259,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002857</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>N  10515101001</v>
+      </c>
+      <c r="C260" s="2">
+        <v>10201</v>
+      </c>
+      <c r="D260" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E260" s="3">
+        <f>VLOOKUP(C260,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002857</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B261" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11A854541</v>
+      </c>
+      <c r="C261" s="2">
+        <v>10175</v>
+      </c>
+      <c r="D261" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E261" s="3">
+        <f>VLOOKUP(C261,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002885</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11A854542</v>
+      </c>
+      <c r="C262" s="2">
+        <v>10175</v>
+      </c>
+      <c r="D262" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E262" s="3">
+        <f>VLOOKUP(C262,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002885</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B263" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11A809957A</v>
+      </c>
+      <c r="C263" s="2">
+        <v>10169</v>
+      </c>
+      <c r="D263" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E263" s="3">
+        <f>VLOOKUP(C263,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002892</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B264" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11A809958A</v>
+      </c>
+      <c r="C264" s="2">
+        <v>10169</v>
+      </c>
+      <c r="D264" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E264" s="3">
+        <f>VLOOKUP(C264,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002892</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B265" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1EA825271</v>
+      </c>
+      <c r="C265" s="2">
+        <v>10169</v>
+      </c>
+      <c r="D265" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E265" s="3">
+        <f>VLOOKUP(C265,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002892</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1EA501731A</v>
+      </c>
+      <c r="C266" s="2">
+        <v>10169</v>
+      </c>
+      <c r="D266" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E266" s="3">
+        <f>VLOOKUP(C266,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002892</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B267" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1EA501732A</v>
+      </c>
+      <c r="C267" s="2">
+        <v>10169</v>
+      </c>
+      <c r="D267" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E267" s="3">
+        <f>VLOOKUP(C267,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002892</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B268" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11A854855</v>
+      </c>
+      <c r="C268" s="2">
+        <v>10169</v>
+      </c>
+      <c r="D268" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E268" s="3">
+        <f>VLOOKUP(C268,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002892</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B269" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11A854856</v>
+      </c>
+      <c r="C269" s="2">
+        <v>10169</v>
+      </c>
+      <c r="D269" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E269" s="3">
+        <f>VLOOKUP(C269,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002892</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED863353</v>
+      </c>
+      <c r="C270" s="2">
+        <v>10151</v>
+      </c>
+      <c r="D270" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E270" s="3">
+        <f>VLOOKUP(C270,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002914</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED863248B</v>
+      </c>
+      <c r="C271" s="2">
+        <v>10151</v>
+      </c>
+      <c r="D271" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E271" s="3">
+        <f>VLOOKUP(C271,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002914</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D863935</v>
+      </c>
+      <c r="C272" s="2">
+        <v>10151</v>
+      </c>
+      <c r="D272" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E272" s="3">
+        <f>VLOOKUP(C272,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002914</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED614723</v>
+      </c>
+      <c r="C273" s="2">
+        <v>10137</v>
+      </c>
+      <c r="D273" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E273" s="3">
+        <f>VLOOKUP(C273,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002939</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED614724</v>
+      </c>
+      <c r="C274" s="2">
+        <v>10137</v>
+      </c>
+      <c r="D274" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E274" s="3">
+        <f>VLOOKUP(C274,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002939</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED614725</v>
+      </c>
+      <c r="C275" s="2">
+        <v>10137</v>
+      </c>
+      <c r="D275" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E275" s="3">
+        <f>VLOOKUP(C275,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002939</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED614726</v>
+      </c>
+      <c r="C276" s="2">
+        <v>10137</v>
+      </c>
+      <c r="D276" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E276" s="3">
+        <f>VLOOKUP(C276,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002939</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED614739</v>
+      </c>
+      <c r="C277" s="2">
+        <v>10137</v>
+      </c>
+      <c r="D277" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E277" s="3">
+        <f>VLOOKUP(C277,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002939</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED614740</v>
+      </c>
+      <c r="C278" s="2">
+        <v>10137</v>
+      </c>
+      <c r="D278" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E278" s="3">
+        <f>VLOOKUP(C278,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002939</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED614741</v>
+      </c>
+      <c r="C279" s="2">
+        <v>10137</v>
+      </c>
+      <c r="D279" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E279" s="3">
+        <f>VLOOKUP(C279,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002939</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED614742</v>
+      </c>
+      <c r="C280" s="2">
+        <v>10137</v>
+      </c>
+      <c r="D280" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E280" s="3">
+        <f>VLOOKUP(C280,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002939</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED614781</v>
+      </c>
+      <c r="C281" s="2">
+        <v>10137</v>
+      </c>
+      <c r="D281" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E281" s="3">
+        <f>VLOOKUP(C281,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002939</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED614782</v>
+      </c>
+      <c r="C282" s="2">
+        <v>10137</v>
+      </c>
+      <c r="D282" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E282" s="3">
+        <f>VLOOKUP(C282,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002939</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D823509A</v>
+      </c>
+      <c r="C283" s="2">
+        <v>10136</v>
+      </c>
+      <c r="D283" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E283" s="3">
+        <f>VLOOKUP(C283,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002940</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>3GD864886</v>
+      </c>
+      <c r="C284" s="2">
+        <v>10134</v>
+      </c>
+      <c r="D284" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E284" s="3">
+        <f>VLOOKUP(C284,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002943</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED816087</v>
+      </c>
+      <c r="C285" s="2">
+        <v>10125</v>
+      </c>
+      <c r="D285" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E285" s="3">
+        <f>VLOOKUP(C285,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002959</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D861513</v>
+      </c>
+      <c r="C286" s="2">
+        <v>10125</v>
+      </c>
+      <c r="D286" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E286" s="3">
+        <f>VLOOKUP(C286,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002959</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11A819335D</v>
+      </c>
+      <c r="C287" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D287" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E287" s="3">
+        <f>VLOOKUP(C287,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B288" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11A819336D</v>
+      </c>
+      <c r="C288" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D288" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E288" s="3">
+        <f>VLOOKUP(C288,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11B819403B</v>
+      </c>
+      <c r="C289" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D289" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E289" s="3">
+        <f>VLOOKUP(C289,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D867427</v>
+      </c>
+      <c r="C290" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D290" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E290" s="3">
+        <f>VLOOKUP(C290,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D867428</v>
+      </c>
+      <c r="C291" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D291" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E291" s="3">
+        <f>VLOOKUP(C291,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D853855</v>
+      </c>
+      <c r="C292" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D292" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E292" s="3">
+        <f>VLOOKUP(C292,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D853856</v>
+      </c>
+      <c r="C293" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D293" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E293" s="3">
+        <f>VLOOKUP(C293,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D854939A</v>
+      </c>
+      <c r="C294" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D294" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E294" s="3">
+        <f>VLOOKUP(C294,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B295" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D854940A</v>
+      </c>
+      <c r="C295" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D295" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E295" s="3">
+        <f>VLOOKUP(C295,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D854949A</v>
+      </c>
+      <c r="C296" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D296" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E296" s="3">
+        <f>VLOOKUP(C296,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D854950A</v>
+      </c>
+      <c r="C297" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D297" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E297" s="3">
+        <f>VLOOKUP(C297,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B298" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D853717</v>
+      </c>
+      <c r="C298" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D298" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E298" s="3">
+        <f>VLOOKUP(C298,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D853718</v>
+      </c>
+      <c r="C299" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D299" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E299" s="3">
+        <f>VLOOKUP(C299,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D853817</v>
+      </c>
+      <c r="C300" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D300" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E300" s="3">
+        <f>VLOOKUP(C300,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D853818</v>
+      </c>
+      <c r="C301" s="2">
+        <v>10122</v>
+      </c>
+      <c r="D301" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E301" s="3">
+        <f>VLOOKUP(C301,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002963</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B302" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED121064</v>
+      </c>
+      <c r="C302" s="2">
+        <v>10119</v>
+      </c>
+      <c r="D302" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E302" s="3">
+        <f>VLOOKUP(C302,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002969</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B303" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED122141</v>
+      </c>
+      <c r="C303" s="2">
+        <v>10119</v>
+      </c>
+      <c r="D303" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E303" s="3">
+        <f>VLOOKUP(C303,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002969</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B304" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>0MH301472A</v>
+      </c>
+      <c r="C304" s="2">
+        <v>10119</v>
+      </c>
+      <c r="D304" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E304" s="3">
+        <f>VLOOKUP(C304,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50002969</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B305" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D857705A</v>
+      </c>
+      <c r="C305" s="2">
+        <v>10098</v>
+      </c>
+      <c r="D305" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E305" s="3">
+        <f>VLOOKUP(C305,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003021</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B306" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D857706A</v>
+      </c>
+      <c r="C306" s="2">
+        <v>10098</v>
+      </c>
+      <c r="D306" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E306" s="3">
+        <f>VLOOKUP(C306,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003021</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B307" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>1ED820807</v>
+      </c>
+      <c r="C307" s="2">
+        <v>10034</v>
+      </c>
+      <c r="D307" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E307" s="3">
+        <f>VLOOKUP(C307,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003120</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B308" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D945207</v>
+      </c>
+      <c r="C308" s="2">
+        <v>10023</v>
+      </c>
+      <c r="D308" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E308" s="3">
+        <f>VLOOKUP(C308,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003136</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B309" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D945427</v>
+      </c>
+      <c r="C309" s="2">
+        <v>10023</v>
+      </c>
+      <c r="D309" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E309" s="3">
+        <f>VLOOKUP(C309,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003136</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B310" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D945208</v>
+      </c>
+      <c r="C310" s="2">
+        <v>10023</v>
+      </c>
+      <c r="D310" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E310" s="3">
+        <f>VLOOKUP(C310,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003136</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B311" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D945428</v>
+      </c>
+      <c r="C311" s="2">
+        <v>10023</v>
+      </c>
+      <c r="D311" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E311" s="3">
+        <f>VLOOKUP(C311,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003136</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B312" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D945307</v>
+      </c>
+      <c r="C312" s="2">
+        <v>10023</v>
+      </c>
+      <c r="D312" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E312" s="3">
+        <f>VLOOKUP(C312,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003136</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B313" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D945426</v>
+      </c>
+      <c r="C313" s="2">
+        <v>10023</v>
+      </c>
+      <c r="D313" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E313" s="3">
+        <f>VLOOKUP(C313,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003136</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B314" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D945425</v>
+      </c>
+      <c r="C314" s="2">
+        <v>10023</v>
+      </c>
+      <c r="D314" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E314" s="3">
+        <f>VLOOKUP(C314,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003136</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B315" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11D951206</v>
+      </c>
+      <c r="C315" s="2">
+        <v>10019</v>
+      </c>
+      <c r="D315" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E315" s="3">
+        <f>VLOOKUP(C315,SUPPLIER_ID!$A:$B,2,0)</f>
         <v>50003140</v>
       </c>
     </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B316" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>5GG959855D</v>
+      </c>
+      <c r="C316" s="2">
+        <v>10019</v>
+      </c>
+      <c r="D316" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E316" s="3">
+        <f>VLOOKUP(C316,SUPPLIER_ID!$A:$B,2,0)</f>
+        <v>50003140</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E21"/>
+  <autoFilter ref="A1:E316"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -893,10 +7377,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1003"/>
+  <dimension ref="A1:B1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A967" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G995" sqref="G995"/>
+    <sheetView topLeftCell="A958" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I984" sqref="I984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8929,6 +15413,54 @@
         <v>50234904</v>
       </c>
     </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>11899</v>
+      </c>
+      <c r="B1004">
+        <v>50096802</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>11949</v>
+      </c>
+      <c r="B1005">
+        <v>50077550</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>11931</v>
+      </c>
+      <c r="B1006">
+        <v>50345855</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>11897</v>
+      </c>
+      <c r="B1007">
+        <v>50294862</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>11915</v>
+      </c>
+      <c r="B1008">
+        <v>50328852</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>11927</v>
+      </c>
+      <c r="B1009">
+        <v>50001210</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
